--- a/UI DIAGRAM & DATABASE SCHEMA/WORK/TablesRelationswithData.xlsx
+++ b/UI DIAGRAM & DATABASE SCHEMA/WORK/TablesRelationswithData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KOMAL\Desktop\ProjectGroup16IMP\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KOMAL\Desktop\ProjectGroup16IMP\MyWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C1C660-0611-440A-A4C4-9AB5F2F00F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02EB7F06-BC27-4867-A249-CF8F30CF9A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="96">
   <si>
     <t>BookMyMaid Database Tables</t>
   </si>
@@ -457,7 +457,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -909,12 +909,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1039,12 +1070,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1114,9 +1139,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1159,9 +1181,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1195,8 +1214,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1234,6 +1310,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1251,42 +1336,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1580,7 +1629,7 @@
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:S33"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1594,88 +1643,88 @@
     <col min="7" max="7" width="14.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="19.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.21875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="10.6640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="13.21875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="22.77734375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21" style="1" customWidth="1"/>
     <col min="14" max="14" width="12.88671875" style="1" customWidth="1"/>
     <col min="15" max="15" width="12.44140625" style="1" customWidth="1"/>
     <col min="16" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="115"/>
-      <c r="B1" s="116" t="s">
+      <c r="A1" s="101"/>
+      <c r="B1" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="117"/>
-      <c r="R1" s="117"/>
-      <c r="S1" s="117"/>
-      <c r="T1" s="114"/>
-      <c r="U1" s="114"/>
-      <c r="V1" s="118"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="123"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="106"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A2" s="119"/>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="120"/>
-      <c r="P2" s="120"/>
-      <c r="Q2" s="120"/>
-      <c r="R2" s="120"/>
-      <c r="S2" s="120"/>
-      <c r="T2" s="113"/>
-      <c r="U2" s="113"/>
-      <c r="V2" s="121"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="124"/>
+      <c r="S2" s="124"/>
+      <c r="T2" s="105"/>
+      <c r="U2" s="105"/>
+      <c r="V2" s="107"/>
     </row>
     <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="119"/>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="107"/>
-      <c r="Q3" s="107"/>
-      <c r="R3" s="107"/>
-      <c r="S3" s="107"/>
-      <c r="T3" s="113"/>
-      <c r="U3" s="113"/>
-      <c r="V3" s="121"/>
+      <c r="A3" s="102"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="125"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="105"/>
+      <c r="U3" s="105"/>
+      <c r="V3" s="107"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
@@ -1686,32 +1735,32 @@
       <c r="AD3" s="5"/>
     </row>
     <row r="4" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="119"/>
-      <c r="B4" s="95" t="s">
+      <c r="A4" s="102"/>
+      <c r="B4" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="99"/>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="99"/>
-      <c r="S4" s="100"/>
-      <c r="T4" s="113"/>
-      <c r="U4" s="113"/>
-      <c r="V4" s="121"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="114"/>
+      <c r="O4" s="114"/>
+      <c r="P4" s="114"/>
+      <c r="Q4" s="114"/>
+      <c r="R4" s="114"/>
+      <c r="S4" s="115"/>
+      <c r="T4" s="105"/>
+      <c r="U4" s="105"/>
+      <c r="V4" s="107"/>
       <c r="W4" s="8"/>
       <c r="X4" s="8"/>
       <c r="Y4" s="5"/>
@@ -1722,28 +1771,28 @@
       <c r="AD4" s="5"/>
     </row>
     <row r="5" spans="1:30" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="119"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="102"/>
-      <c r="L5" s="102"/>
-      <c r="M5" s="102"/>
-      <c r="N5" s="102"/>
-      <c r="O5" s="102"/>
-      <c r="P5" s="102"/>
-      <c r="Q5" s="102"/>
-      <c r="R5" s="102"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="113"/>
-      <c r="U5" s="113"/>
-      <c r="V5" s="121"/>
+      <c r="A5" s="102"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="118"/>
+      <c r="T5" s="105"/>
+      <c r="U5" s="105"/>
+      <c r="V5" s="107"/>
       <c r="W5" s="8"/>
       <c r="X5" s="8"/>
       <c r="Y5" s="3"/>
@@ -1754,28 +1803,28 @@
       <c r="AD5" s="5"/>
     </row>
     <row r="6" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="119"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="105"/>
-      <c r="M6" s="105"/>
-      <c r="N6" s="105"/>
-      <c r="O6" s="105"/>
-      <c r="P6" s="105"/>
-      <c r="Q6" s="105"/>
-      <c r="R6" s="105"/>
-      <c r="S6" s="106"/>
-      <c r="T6" s="113"/>
-      <c r="U6" s="113"/>
-      <c r="V6" s="121"/>
+      <c r="A6" s="102"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="120"/>
+      <c r="M6" s="120"/>
+      <c r="N6" s="120"/>
+      <c r="O6" s="120"/>
+      <c r="P6" s="120"/>
+      <c r="Q6" s="120"/>
+      <c r="R6" s="120"/>
+      <c r="S6" s="121"/>
+      <c r="T6" s="105"/>
+      <c r="U6" s="105"/>
+      <c r="V6" s="107"/>
       <c r="W6" s="8"/>
       <c r="X6" s="8"/>
       <c r="Y6" s="3"/>
@@ -1786,7 +1835,7 @@
       <c r="AD6" s="5"/>
     </row>
     <row r="7" spans="1:30" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="119"/>
+      <c r="A7" s="102"/>
       <c r="B7" s="18" t="s">
         <v>10</v>
       </c>
@@ -1813,9 +1862,9 @@
       <c r="Q7" s="15"/>
       <c r="R7" s="15"/>
       <c r="S7" s="16"/>
-      <c r="T7" s="113"/>
-      <c r="U7" s="113"/>
-      <c r="V7" s="121"/>
+      <c r="T7" s="105"/>
+      <c r="U7" s="105"/>
+      <c r="V7" s="107"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
@@ -1826,28 +1875,28 @@
       <c r="AD7" s="5"/>
     </row>
     <row r="8" spans="1:30" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="119"/>
-      <c r="B8" s="108"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="109"/>
-      <c r="M8" s="109"/>
-      <c r="N8" s="109"/>
-      <c r="O8" s="109"/>
-      <c r="P8" s="109"/>
-      <c r="Q8" s="109"/>
-      <c r="R8" s="109"/>
-      <c r="S8" s="110"/>
-      <c r="T8" s="113"/>
-      <c r="U8" s="113"/>
-      <c r="V8" s="121"/>
+      <c r="A8" s="102"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="127"/>
+      <c r="G8" s="127"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="127"/>
+      <c r="J8" s="127"/>
+      <c r="K8" s="127"/>
+      <c r="L8" s="127"/>
+      <c r="M8" s="127"/>
+      <c r="N8" s="127"/>
+      <c r="O8" s="127"/>
+      <c r="P8" s="127"/>
+      <c r="Q8" s="127"/>
+      <c r="R8" s="127"/>
+      <c r="S8" s="128"/>
+      <c r="T8" s="105"/>
+      <c r="U8" s="105"/>
+      <c r="V8" s="107"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
@@ -1858,7 +1907,7 @@
       <c r="AD8" s="5"/>
     </row>
     <row r="9" spans="1:30" ht="47.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="119"/>
+      <c r="A9" s="102"/>
       <c r="B9" s="17" t="s">
         <v>1</v>
       </c>
@@ -1907,9 +1956,9 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="6"/>
-      <c r="T9" s="113"/>
-      <c r="U9" s="113"/>
-      <c r="V9" s="121"/>
+      <c r="T9" s="105"/>
+      <c r="U9" s="105"/>
+      <c r="V9" s="107"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
@@ -1920,28 +1969,28 @@
       <c r="AD9" s="5"/>
     </row>
     <row r="10" spans="1:30" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="119"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="109"/>
-      <c r="S10" s="110"/>
-      <c r="T10" s="113"/>
-      <c r="U10" s="113"/>
-      <c r="V10" s="121"/>
+      <c r="A10" s="102"/>
+      <c r="B10" s="126"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="127"/>
+      <c r="L10" s="127"/>
+      <c r="M10" s="127"/>
+      <c r="N10" s="127"/>
+      <c r="O10" s="127"/>
+      <c r="P10" s="127"/>
+      <c r="Q10" s="127"/>
+      <c r="R10" s="127"/>
+      <c r="S10" s="128"/>
+      <c r="T10" s="105"/>
+      <c r="U10" s="105"/>
+      <c r="V10" s="107"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
@@ -1952,41 +2001,41 @@
       <c r="AD10" s="5"/>
     </row>
     <row r="11" spans="1:30" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="119"/>
+      <c r="A11" s="102"/>
       <c r="B11" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="72" t="s">
+      <c r="D11" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="72" t="s">
+      <c r="E11" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="72" t="s">
+      <c r="F11" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="72" t="s">
+      <c r="G11" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="72" t="s">
+      <c r="H11" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="72" t="s">
+      <c r="I11" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="J11" s="72" t="s">
+      <c r="J11" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="K11" s="72" t="s">
+      <c r="K11" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="L11" s="72" t="s">
+      <c r="L11" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="M11" s="72" t="s">
+      <c r="M11" s="69" t="s">
         <v>48</v>
       </c>
       <c r="N11" s="2"/>
@@ -1995,9 +2044,9 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="6"/>
-      <c r="T11" s="113"/>
-      <c r="U11" s="113"/>
-      <c r="V11" s="121"/>
+      <c r="T11" s="105"/>
+      <c r="U11" s="105"/>
+      <c r="V11" s="107"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
@@ -2008,28 +2057,28 @@
       <c r="AD11" s="5"/>
     </row>
     <row r="12" spans="1:30" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="119"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="109"/>
-      <c r="M12" s="109"/>
-      <c r="N12" s="109"/>
-      <c r="O12" s="109"/>
-      <c r="P12" s="109"/>
-      <c r="Q12" s="109"/>
-      <c r="R12" s="109"/>
-      <c r="S12" s="110"/>
-      <c r="T12" s="113"/>
-      <c r="U12" s="113"/>
-      <c r="V12" s="121"/>
+      <c r="A12" s="102"/>
+      <c r="B12" s="126"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="127"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="127"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="127"/>
+      <c r="J12" s="127"/>
+      <c r="K12" s="127"/>
+      <c r="L12" s="127"/>
+      <c r="M12" s="127"/>
+      <c r="N12" s="127"/>
+      <c r="O12" s="127"/>
+      <c r="P12" s="127"/>
+      <c r="Q12" s="127"/>
+      <c r="R12" s="127"/>
+      <c r="S12" s="128"/>
+      <c r="T12" s="105"/>
+      <c r="U12" s="105"/>
+      <c r="V12" s="107"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
@@ -2040,7 +2089,7 @@
       <c r="AD12" s="5"/>
     </row>
     <row r="13" spans="1:30" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="119"/>
+      <c r="A13" s="102"/>
       <c r="B13" s="17" t="s">
         <v>3</v>
       </c>
@@ -2067,9 +2116,9 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="6"/>
-      <c r="T13" s="113"/>
-      <c r="U13" s="113"/>
-      <c r="V13" s="121"/>
+      <c r="T13" s="105"/>
+      <c r="U13" s="105"/>
+      <c r="V13" s="107"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
@@ -2080,28 +2129,28 @@
       <c r="AD13" s="5"/>
     </row>
     <row r="14" spans="1:30" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="119"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="109"/>
-      <c r="G14" s="109"/>
-      <c r="H14" s="109"/>
-      <c r="I14" s="109"/>
-      <c r="J14" s="109"/>
-      <c r="K14" s="109"/>
-      <c r="L14" s="109"/>
-      <c r="M14" s="109"/>
-      <c r="N14" s="109"/>
-      <c r="O14" s="109"/>
-      <c r="P14" s="109"/>
-      <c r="Q14" s="109"/>
-      <c r="R14" s="109"/>
-      <c r="S14" s="110"/>
-      <c r="T14" s="113"/>
-      <c r="U14" s="113"/>
-      <c r="V14" s="121"/>
+      <c r="A14" s="102"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="127"/>
+      <c r="G14" s="127"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="127"/>
+      <c r="J14" s="127"/>
+      <c r="K14" s="127"/>
+      <c r="L14" s="127"/>
+      <c r="M14" s="127"/>
+      <c r="N14" s="127"/>
+      <c r="O14" s="127"/>
+      <c r="P14" s="127"/>
+      <c r="Q14" s="127"/>
+      <c r="R14" s="127"/>
+      <c r="S14" s="128"/>
+      <c r="T14" s="105"/>
+      <c r="U14" s="105"/>
+      <c r="V14" s="107"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
@@ -2112,7 +2161,7 @@
       <c r="AD14" s="5"/>
     </row>
     <row r="15" spans="1:30" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="119"/>
+      <c r="A15" s="102"/>
       <c r="B15" s="17" t="s">
         <v>4</v>
       </c>
@@ -2135,11 +2184,13 @@
         <v>89</v>
       </c>
       <c r="I15" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="J15" s="73"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="73"/>
+      <c r="L15" s="70"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2147,9 +2198,9 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="6"/>
-      <c r="T15" s="113"/>
-      <c r="U15" s="113"/>
-      <c r="V15" s="121"/>
+      <c r="T15" s="105"/>
+      <c r="U15" s="105"/>
+      <c r="V15" s="107"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
@@ -2160,28 +2211,28 @@
       <c r="AD15" s="5"/>
     </row>
     <row r="16" spans="1:30" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="119"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="109"/>
-      <c r="I16" s="109"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="109"/>
-      <c r="O16" s="109"/>
-      <c r="P16" s="109"/>
-      <c r="Q16" s="109"/>
-      <c r="R16" s="109"/>
-      <c r="S16" s="110"/>
-      <c r="T16" s="113"/>
-      <c r="U16" s="113"/>
-      <c r="V16" s="121"/>
+      <c r="A16" s="102"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="127"/>
+      <c r="L16" s="127"/>
+      <c r="M16" s="127"/>
+      <c r="N16" s="127"/>
+      <c r="O16" s="127"/>
+      <c r="P16" s="127"/>
+      <c r="Q16" s="127"/>
+      <c r="R16" s="127"/>
+      <c r="S16" s="128"/>
+      <c r="T16" s="105"/>
+      <c r="U16" s="105"/>
+      <c r="V16" s="107"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
@@ -2192,7 +2243,7 @@
       <c r="AD16" s="5"/>
     </row>
     <row r="17" spans="1:30" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="119"/>
+      <c r="A17" s="102"/>
       <c r="B17" s="17" t="s">
         <v>5</v>
       </c>
@@ -2223,9 +2274,9 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="6"/>
-      <c r="T17" s="113"/>
-      <c r="U17" s="113"/>
-      <c r="V17" s="121"/>
+      <c r="T17" s="105"/>
+      <c r="U17" s="105"/>
+      <c r="V17" s="107"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
@@ -2236,28 +2287,28 @@
       <c r="AD17" s="5"/>
     </row>
     <row r="18" spans="1:30" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="119"/>
-      <c r="B18" s="108"/>
-      <c r="C18" s="109"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="109"/>
-      <c r="H18" s="109"/>
-      <c r="I18" s="109"/>
-      <c r="J18" s="109"/>
-      <c r="K18" s="109"/>
-      <c r="L18" s="109"/>
-      <c r="M18" s="109"/>
-      <c r="N18" s="109"/>
-      <c r="O18" s="109"/>
-      <c r="P18" s="109"/>
-      <c r="Q18" s="109"/>
-      <c r="R18" s="109"/>
-      <c r="S18" s="110"/>
-      <c r="T18" s="113"/>
-      <c r="U18" s="113"/>
-      <c r="V18" s="121"/>
+      <c r="A18" s="102"/>
+      <c r="B18" s="126"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="127"/>
+      <c r="J18" s="127"/>
+      <c r="K18" s="127"/>
+      <c r="L18" s="127"/>
+      <c r="M18" s="127"/>
+      <c r="N18" s="127"/>
+      <c r="O18" s="127"/>
+      <c r="P18" s="127"/>
+      <c r="Q18" s="127"/>
+      <c r="R18" s="127"/>
+      <c r="S18" s="128"/>
+      <c r="T18" s="105"/>
+      <c r="U18" s="105"/>
+      <c r="V18" s="107"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
@@ -2268,7 +2319,7 @@
       <c r="AD18" s="5"/>
     </row>
     <row r="19" spans="1:30" ht="48.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="119"/>
+      <c r="A19" s="102"/>
       <c r="B19" s="17" t="s">
         <v>6</v>
       </c>
@@ -2301,9 +2352,9 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="7"/>
-      <c r="T19" s="113"/>
-      <c r="U19" s="113"/>
-      <c r="V19" s="121"/>
+      <c r="T19" s="105"/>
+      <c r="U19" s="105"/>
+      <c r="V19" s="107"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
@@ -2314,28 +2365,28 @@
       <c r="AD19" s="5"/>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A20" s="119"/>
-      <c r="B20" s="114"/>
-      <c r="C20" s="114"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="114"/>
-      <c r="H20" s="114"/>
-      <c r="I20" s="114"/>
-      <c r="J20" s="114"/>
-      <c r="K20" s="114"/>
-      <c r="L20" s="114"/>
-      <c r="M20" s="114"/>
-      <c r="N20" s="114"/>
-      <c r="O20" s="114"/>
-      <c r="P20" s="114"/>
-      <c r="Q20" s="114"/>
-      <c r="R20" s="114"/>
-      <c r="S20" s="114"/>
-      <c r="T20" s="113"/>
-      <c r="U20" s="113"/>
-      <c r="V20" s="121"/>
+      <c r="A20" s="102"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="104"/>
+      <c r="K20" s="104"/>
+      <c r="L20" s="104"/>
+      <c r="M20" s="104"/>
+      <c r="N20" s="104"/>
+      <c r="O20" s="104"/>
+      <c r="P20" s="104"/>
+      <c r="Q20" s="104"/>
+      <c r="R20" s="104"/>
+      <c r="S20" s="104"/>
+      <c r="T20" s="105"/>
+      <c r="U20" s="105"/>
+      <c r="V20" s="107"/>
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
@@ -2346,28 +2397,28 @@
       <c r="AD20" s="5"/>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A21" s="119"/>
-      <c r="B21" s="113"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="113"/>
-      <c r="L21" s="113"/>
-      <c r="M21" s="113"/>
-      <c r="N21" s="113"/>
-      <c r="O21" s="113"/>
-      <c r="P21" s="113"/>
-      <c r="Q21" s="113"/>
-      <c r="R21" s="113"/>
-      <c r="S21" s="113"/>
-      <c r="T21" s="113"/>
-      <c r="U21" s="113"/>
-      <c r="V21" s="121"/>
+      <c r="A21" s="102"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="105"/>
+      <c r="L21" s="105"/>
+      <c r="M21" s="105"/>
+      <c r="N21" s="105"/>
+      <c r="O21" s="105"/>
+      <c r="P21" s="105"/>
+      <c r="Q21" s="105"/>
+      <c r="R21" s="105"/>
+      <c r="S21" s="105"/>
+      <c r="T21" s="105"/>
+      <c r="U21" s="105"/>
+      <c r="V21" s="107"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
@@ -2378,340 +2429,340 @@
       <c r="AD21" s="5"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A22" s="119"/>
-      <c r="B22" s="113"/>
-      <c r="C22" s="113"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="113"/>
-      <c r="K22" s="113"/>
-      <c r="L22" s="113"/>
-      <c r="M22" s="113"/>
-      <c r="N22" s="113"/>
-      <c r="O22" s="113"/>
-      <c r="P22" s="113"/>
-      <c r="Q22" s="113"/>
-      <c r="R22" s="113"/>
-      <c r="S22" s="113"/>
-      <c r="T22" s="113"/>
-      <c r="U22" s="113"/>
-      <c r="V22" s="121"/>
+      <c r="A22" s="102"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="105"/>
+      <c r="J22" s="105"/>
+      <c r="K22" s="105"/>
+      <c r="L22" s="105"/>
+      <c r="M22" s="105"/>
+      <c r="N22" s="105"/>
+      <c r="O22" s="105"/>
+      <c r="P22" s="105"/>
+      <c r="Q22" s="105"/>
+      <c r="R22" s="105"/>
+      <c r="S22" s="105"/>
+      <c r="T22" s="105"/>
+      <c r="U22" s="105"/>
+      <c r="V22" s="107"/>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A23" s="119"/>
-      <c r="B23" s="113"/>
-      <c r="C23" s="113"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="113"/>
-      <c r="G23" s="113"/>
-      <c r="H23" s="113"/>
-      <c r="I23" s="113"/>
-      <c r="J23" s="113"/>
-      <c r="K23" s="113"/>
-      <c r="L23" s="113"/>
-      <c r="M23" s="113"/>
-      <c r="N23" s="113"/>
-      <c r="O23" s="113"/>
-      <c r="P23" s="113"/>
-      <c r="Q23" s="113"/>
-      <c r="R23" s="113"/>
-      <c r="S23" s="113"/>
-      <c r="T23" s="113"/>
-      <c r="U23" s="113"/>
-      <c r="V23" s="121"/>
+      <c r="A23" s="102"/>
+      <c r="B23" s="105"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="105"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="105"/>
+      <c r="K23" s="105"/>
+      <c r="L23" s="105"/>
+      <c r="M23" s="105"/>
+      <c r="N23" s="105"/>
+      <c r="O23" s="105"/>
+      <c r="P23" s="105"/>
+      <c r="Q23" s="105"/>
+      <c r="R23" s="105"/>
+      <c r="S23" s="105"/>
+      <c r="T23" s="105"/>
+      <c r="U23" s="105"/>
+      <c r="V23" s="107"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A24" s="119"/>
-      <c r="B24" s="113"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="113"/>
-      <c r="H24" s="113"/>
-      <c r="I24" s="113"/>
-      <c r="J24" s="113"/>
-      <c r="K24" s="113"/>
-      <c r="L24" s="113"/>
-      <c r="M24" s="113"/>
-      <c r="N24" s="113"/>
-      <c r="O24" s="113"/>
-      <c r="P24" s="113"/>
-      <c r="Q24" s="113"/>
-      <c r="R24" s="113"/>
-      <c r="S24" s="113"/>
-      <c r="T24" s="113"/>
-      <c r="U24" s="113"/>
-      <c r="V24" s="121"/>
+      <c r="A24" s="102"/>
+      <c r="B24" s="105"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="105"/>
+      <c r="K24" s="105"/>
+      <c r="L24" s="105"/>
+      <c r="M24" s="105"/>
+      <c r="N24" s="105"/>
+      <c r="O24" s="105"/>
+      <c r="P24" s="105"/>
+      <c r="Q24" s="105"/>
+      <c r="R24" s="105"/>
+      <c r="S24" s="105"/>
+      <c r="T24" s="105"/>
+      <c r="U24" s="105"/>
+      <c r="V24" s="107"/>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A25" s="119"/>
-      <c r="B25" s="113"/>
-      <c r="C25" s="113"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="113"/>
-      <c r="H25" s="113"/>
-      <c r="I25" s="113"/>
-      <c r="J25" s="113"/>
-      <c r="K25" s="113"/>
-      <c r="L25" s="113"/>
-      <c r="M25" s="113"/>
-      <c r="N25" s="113"/>
-      <c r="O25" s="113"/>
-      <c r="P25" s="113"/>
-      <c r="Q25" s="113"/>
-      <c r="R25" s="113"/>
-      <c r="S25" s="113"/>
-      <c r="T25" s="113"/>
-      <c r="U25" s="113"/>
-      <c r="V25" s="121"/>
+      <c r="A25" s="102"/>
+      <c r="B25" s="105"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="105"/>
+      <c r="K25" s="105"/>
+      <c r="L25" s="105"/>
+      <c r="M25" s="105"/>
+      <c r="N25" s="105"/>
+      <c r="O25" s="105"/>
+      <c r="P25" s="105"/>
+      <c r="Q25" s="105"/>
+      <c r="R25" s="105"/>
+      <c r="S25" s="105"/>
+      <c r="T25" s="105"/>
+      <c r="U25" s="105"/>
+      <c r="V25" s="107"/>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A26" s="119"/>
-      <c r="B26" s="113"/>
-      <c r="C26" s="113"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="113"/>
-      <c r="G26" s="113"/>
-      <c r="H26" s="113"/>
-      <c r="I26" s="113"/>
-      <c r="J26" s="113"/>
-      <c r="K26" s="113"/>
-      <c r="L26" s="113"/>
-      <c r="M26" s="113"/>
-      <c r="N26" s="113"/>
-      <c r="O26" s="113"/>
-      <c r="P26" s="113"/>
-      <c r="Q26" s="113"/>
-      <c r="R26" s="113"/>
-      <c r="S26" s="113"/>
-      <c r="T26" s="113"/>
-      <c r="U26" s="113"/>
-      <c r="V26" s="121"/>
+      <c r="A26" s="102"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="105"/>
+      <c r="L26" s="105"/>
+      <c r="M26" s="105"/>
+      <c r="N26" s="105"/>
+      <c r="O26" s="105"/>
+      <c r="P26" s="105"/>
+      <c r="Q26" s="105"/>
+      <c r="R26" s="105"/>
+      <c r="S26" s="105"/>
+      <c r="T26" s="105"/>
+      <c r="U26" s="105"/>
+      <c r="V26" s="107"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A27" s="119"/>
-      <c r="B27" s="113"/>
-      <c r="C27" s="113"/>
-      <c r="D27" s="113"/>
-      <c r="E27" s="113"/>
-      <c r="F27" s="113"/>
-      <c r="G27" s="113"/>
-      <c r="H27" s="113"/>
-      <c r="I27" s="113"/>
-      <c r="J27" s="113"/>
-      <c r="K27" s="113"/>
-      <c r="L27" s="113"/>
-      <c r="M27" s="113"/>
-      <c r="N27" s="113"/>
-      <c r="O27" s="113"/>
-      <c r="P27" s="113"/>
-      <c r="Q27" s="113"/>
-      <c r="R27" s="113"/>
-      <c r="S27" s="113"/>
-      <c r="T27" s="113"/>
-      <c r="U27" s="113"/>
-      <c r="V27" s="121"/>
+      <c r="A27" s="102"/>
+      <c r="B27" s="105"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="105"/>
+      <c r="J27" s="105"/>
+      <c r="K27" s="105"/>
+      <c r="L27" s="105"/>
+      <c r="M27" s="105"/>
+      <c r="N27" s="105"/>
+      <c r="O27" s="105"/>
+      <c r="P27" s="105"/>
+      <c r="Q27" s="105"/>
+      <c r="R27" s="105"/>
+      <c r="S27" s="105"/>
+      <c r="T27" s="105"/>
+      <c r="U27" s="105"/>
+      <c r="V27" s="107"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A28" s="119"/>
-      <c r="B28" s="113"/>
-      <c r="C28" s="113"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="113"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="113"/>
-      <c r="H28" s="113"/>
-      <c r="I28" s="113"/>
-      <c r="J28" s="113"/>
-      <c r="K28" s="113"/>
-      <c r="L28" s="113"/>
-      <c r="M28" s="113"/>
-      <c r="N28" s="113"/>
-      <c r="O28" s="113"/>
-      <c r="P28" s="113"/>
-      <c r="Q28" s="113"/>
-      <c r="R28" s="113"/>
-      <c r="S28" s="113"/>
-      <c r="T28" s="113"/>
-      <c r="U28" s="113"/>
-      <c r="V28" s="121"/>
+      <c r="A28" s="102"/>
+      <c r="B28" s="105"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="105"/>
+      <c r="I28" s="105"/>
+      <c r="J28" s="105"/>
+      <c r="K28" s="105"/>
+      <c r="L28" s="105"/>
+      <c r="M28" s="105"/>
+      <c r="N28" s="105"/>
+      <c r="O28" s="105"/>
+      <c r="P28" s="105"/>
+      <c r="Q28" s="105"/>
+      <c r="R28" s="105"/>
+      <c r="S28" s="105"/>
+      <c r="T28" s="105"/>
+      <c r="U28" s="105"/>
+      <c r="V28" s="107"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A29" s="119"/>
-      <c r="B29" s="113"/>
-      <c r="C29" s="113"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="113"/>
-      <c r="G29" s="113"/>
-      <c r="H29" s="113"/>
-      <c r="I29" s="113"/>
-      <c r="J29" s="113"/>
-      <c r="K29" s="113"/>
-      <c r="L29" s="113"/>
-      <c r="M29" s="113"/>
-      <c r="N29" s="113"/>
-      <c r="O29" s="113"/>
-      <c r="P29" s="113"/>
-      <c r="Q29" s="113"/>
-      <c r="R29" s="113"/>
-      <c r="S29" s="113"/>
-      <c r="T29" s="113"/>
-      <c r="U29" s="113"/>
-      <c r="V29" s="121"/>
+      <c r="A29" s="102"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="105"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="105"/>
+      <c r="K29" s="105"/>
+      <c r="L29" s="105"/>
+      <c r="M29" s="105"/>
+      <c r="N29" s="105"/>
+      <c r="O29" s="105"/>
+      <c r="P29" s="105"/>
+      <c r="Q29" s="105"/>
+      <c r="R29" s="105"/>
+      <c r="S29" s="105"/>
+      <c r="T29" s="105"/>
+      <c r="U29" s="105"/>
+      <c r="V29" s="107"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A30" s="119"/>
-      <c r="B30" s="113"/>
-      <c r="C30" s="113"/>
-      <c r="D30" s="113"/>
-      <c r="E30" s="113"/>
-      <c r="F30" s="113"/>
-      <c r="G30" s="113"/>
-      <c r="H30" s="113"/>
-      <c r="I30" s="113"/>
-      <c r="J30" s="113"/>
-      <c r="K30" s="113"/>
-      <c r="L30" s="113"/>
-      <c r="M30" s="113"/>
-      <c r="N30" s="113"/>
-      <c r="O30" s="113"/>
-      <c r="P30" s="113"/>
-      <c r="Q30" s="113"/>
-      <c r="R30" s="113"/>
-      <c r="S30" s="113"/>
-      <c r="T30" s="113"/>
-      <c r="U30" s="113"/>
-      <c r="V30" s="121"/>
+      <c r="A30" s="102"/>
+      <c r="B30" s="105"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="105"/>
+      <c r="I30" s="105"/>
+      <c r="J30" s="105"/>
+      <c r="K30" s="105"/>
+      <c r="L30" s="105"/>
+      <c r="M30" s="105"/>
+      <c r="N30" s="105"/>
+      <c r="O30" s="105"/>
+      <c r="P30" s="105"/>
+      <c r="Q30" s="105"/>
+      <c r="R30" s="105"/>
+      <c r="S30" s="105"/>
+      <c r="T30" s="105"/>
+      <c r="U30" s="105"/>
+      <c r="V30" s="107"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A31" s="119"/>
-      <c r="B31" s="113"/>
-      <c r="C31" s="113"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="113"/>
-      <c r="G31" s="113"/>
-      <c r="H31" s="113"/>
-      <c r="I31" s="113"/>
-      <c r="J31" s="113"/>
-      <c r="K31" s="113"/>
-      <c r="L31" s="113"/>
-      <c r="M31" s="113"/>
-      <c r="N31" s="113"/>
-      <c r="O31" s="113"/>
-      <c r="P31" s="113"/>
-      <c r="Q31" s="113"/>
-      <c r="R31" s="113"/>
-      <c r="S31" s="113"/>
-      <c r="T31" s="113"/>
-      <c r="U31" s="113"/>
-      <c r="V31" s="121"/>
+      <c r="A31" s="102"/>
+      <c r="B31" s="105"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="105"/>
+      <c r="I31" s="105"/>
+      <c r="J31" s="105"/>
+      <c r="K31" s="105"/>
+      <c r="L31" s="105"/>
+      <c r="M31" s="105"/>
+      <c r="N31" s="105"/>
+      <c r="O31" s="105"/>
+      <c r="P31" s="105"/>
+      <c r="Q31" s="105"/>
+      <c r="R31" s="105"/>
+      <c r="S31" s="105"/>
+      <c r="T31" s="105"/>
+      <c r="U31" s="105"/>
+      <c r="V31" s="107"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A32" s="119"/>
-      <c r="B32" s="113"/>
-      <c r="C32" s="113"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="113"/>
-      <c r="G32" s="113"/>
-      <c r="H32" s="113"/>
-      <c r="I32" s="113"/>
-      <c r="J32" s="113"/>
-      <c r="K32" s="113"/>
-      <c r="L32" s="113"/>
-      <c r="M32" s="113"/>
-      <c r="N32" s="113"/>
-      <c r="O32" s="113"/>
-      <c r="P32" s="113"/>
-      <c r="Q32" s="113"/>
-      <c r="R32" s="113"/>
-      <c r="S32" s="113"/>
-      <c r="T32" s="113"/>
-      <c r="U32" s="113"/>
-      <c r="V32" s="121"/>
+      <c r="A32" s="102"/>
+      <c r="B32" s="105"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="105"/>
+      <c r="I32" s="105"/>
+      <c r="J32" s="105"/>
+      <c r="K32" s="105"/>
+      <c r="L32" s="105"/>
+      <c r="M32" s="105"/>
+      <c r="N32" s="105"/>
+      <c r="O32" s="105"/>
+      <c r="P32" s="105"/>
+      <c r="Q32" s="105"/>
+      <c r="R32" s="105"/>
+      <c r="S32" s="105"/>
+      <c r="T32" s="105"/>
+      <c r="U32" s="105"/>
+      <c r="V32" s="107"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A33" s="119"/>
-      <c r="B33" s="113"/>
-      <c r="C33" s="113"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="113"/>
-      <c r="G33" s="113"/>
-      <c r="H33" s="113"/>
-      <c r="I33" s="113"/>
-      <c r="J33" s="113"/>
-      <c r="K33" s="113"/>
-      <c r="L33" s="113"/>
-      <c r="M33" s="113"/>
-      <c r="N33" s="113"/>
-      <c r="O33" s="113"/>
-      <c r="P33" s="113"/>
-      <c r="Q33" s="113"/>
-      <c r="R33" s="113"/>
-      <c r="S33" s="113"/>
-      <c r="T33" s="113"/>
-      <c r="U33" s="113"/>
-      <c r="V33" s="121"/>
+      <c r="A33" s="102"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="105"/>
+      <c r="J33" s="105"/>
+      <c r="K33" s="105"/>
+      <c r="L33" s="105"/>
+      <c r="M33" s="105"/>
+      <c r="N33" s="105"/>
+      <c r="O33" s="105"/>
+      <c r="P33" s="105"/>
+      <c r="Q33" s="105"/>
+      <c r="R33" s="105"/>
+      <c r="S33" s="105"/>
+      <c r="T33" s="105"/>
+      <c r="U33" s="105"/>
+      <c r="V33" s="107"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A34" s="119"/>
-      <c r="B34" s="113"/>
-      <c r="C34" s="113"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="113"/>
-      <c r="F34" s="113"/>
-      <c r="G34" s="113"/>
-      <c r="H34" s="113"/>
-      <c r="I34" s="113"/>
-      <c r="J34" s="113"/>
-      <c r="K34" s="113"/>
-      <c r="L34" s="113"/>
-      <c r="M34" s="113"/>
-      <c r="N34" s="113"/>
-      <c r="O34" s="113"/>
-      <c r="P34" s="113"/>
-      <c r="Q34" s="113"/>
-      <c r="R34" s="113"/>
-      <c r="S34" s="113"/>
-      <c r="T34" s="113"/>
-      <c r="U34" s="113"/>
-      <c r="V34" s="121"/>
+      <c r="A34" s="102"/>
+      <c r="B34" s="105"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="105"/>
+      <c r="J34" s="105"/>
+      <c r="K34" s="105"/>
+      <c r="L34" s="105"/>
+      <c r="M34" s="105"/>
+      <c r="N34" s="105"/>
+      <c r="O34" s="105"/>
+      <c r="P34" s="105"/>
+      <c r="Q34" s="105"/>
+      <c r="R34" s="105"/>
+      <c r="S34" s="105"/>
+      <c r="T34" s="105"/>
+      <c r="U34" s="105"/>
+      <c r="V34" s="107"/>
     </row>
     <row r="35" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="122"/>
-      <c r="B35" s="123"/>
-      <c r="C35" s="123"/>
-      <c r="D35" s="123"/>
-      <c r="E35" s="123"/>
-      <c r="F35" s="123"/>
-      <c r="G35" s="123"/>
-      <c r="H35" s="123"/>
-      <c r="I35" s="123"/>
-      <c r="J35" s="123"/>
-      <c r="K35" s="123"/>
-      <c r="L35" s="123"/>
-      <c r="M35" s="123"/>
-      <c r="N35" s="123"/>
-      <c r="O35" s="123"/>
-      <c r="P35" s="123"/>
-      <c r="Q35" s="123"/>
-      <c r="R35" s="123"/>
-      <c r="S35" s="123"/>
-      <c r="T35" s="123"/>
-      <c r="U35" s="123"/>
-      <c r="V35" s="124"/>
+      <c r="A35" s="103"/>
+      <c r="B35" s="108"/>
+      <c r="C35" s="108"/>
+      <c r="D35" s="108"/>
+      <c r="E35" s="108"/>
+      <c r="F35" s="108"/>
+      <c r="G35" s="108"/>
+      <c r="H35" s="108"/>
+      <c r="I35" s="108"/>
+      <c r="J35" s="108"/>
+      <c r="K35" s="108"/>
+      <c r="L35" s="108"/>
+      <c r="M35" s="108"/>
+      <c r="N35" s="108"/>
+      <c r="O35" s="108"/>
+      <c r="P35" s="108"/>
+      <c r="Q35" s="108"/>
+      <c r="R35" s="108"/>
+      <c r="S35" s="108"/>
+      <c r="T35" s="108"/>
+      <c r="U35" s="108"/>
+      <c r="V35" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2738,8 +2789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8252C1CA-AEAF-4534-A1F5-D9F1C5B2B732}">
   <dimension ref="C2:Q58"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="M62" sqref="M62"/>
+    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2762,71 +2813,71 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="129" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
     </row>
     <row r="3" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="130"/>
     </row>
     <row r="4" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="130"/>
+      <c r="M4" s="130"/>
     </row>
     <row r="5" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="112"/>
-      <c r="M5" s="112"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="130"/>
+      <c r="K5" s="130"/>
+      <c r="L5" s="130"/>
+      <c r="M5" s="130"/>
     </row>
     <row r="6" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="112"/>
-      <c r="L6" s="112"/>
-      <c r="M6" s="112"/>
+      <c r="C6" s="130"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="130"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="130"/>
+      <c r="H6" s="130"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="130"/>
+      <c r="K6" s="130"/>
+      <c r="L6" s="130"/>
+      <c r="M6" s="130"/>
     </row>
     <row r="7" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="3:13" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -2836,69 +2887,69 @@
       <c r="D8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="91" t="s">
+      <c r="E8" s="87" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="41" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D9" s="34">
         <v>1</v>
       </c>
       <c r="E9" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="42" t="str">
+      <c r="F9" s="93" t="str">
         <f>CONCATENATE(E9,"@",123)</f>
         <v>Akshay@123</v>
       </c>
     </row>
-    <row r="10" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D10" s="36">
         <v>2</v>
       </c>
       <c r="E10" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="42" t="str">
+      <c r="F10" s="95" t="str">
         <f t="shared" ref="F10:F14" si="0">CONCATENATE(E10,"@",123)</f>
         <v>Atharva@123</v>
       </c>
     </row>
-    <row r="11" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D11" s="36">
         <v>3</v>
       </c>
       <c r="E11" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="42" t="str">
+      <c r="F11" s="95" t="str">
         <f t="shared" si="0"/>
         <v>Tejas@123</v>
       </c>
     </row>
-    <row r="12" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D12" s="36">
         <v>4</v>
       </c>
       <c r="E12" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="42" t="str">
+      <c r="F12" s="95" t="str">
         <f t="shared" si="0"/>
         <v>Mayur@123</v>
       </c>
     </row>
-    <row r="13" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D13" s="36">
         <v>5</v>
       </c>
       <c r="E13" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="42" t="str">
+      <c r="F13" s="95" t="str">
         <f t="shared" si="0"/>
         <v>Pankaj@123</v>
       </c>
@@ -2910,7 +2961,7 @@
       <c r="E14" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="43" t="str">
+      <c r="F14" s="94" t="str">
         <f t="shared" si="0"/>
         <v>Ruchita@123</v>
       </c>
@@ -2921,7 +2972,7 @@
       <c r="C17" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="89" t="s">
+      <c r="D17" s="85" t="s">
         <v>56</v>
       </c>
       <c r="E17" s="25" t="s">
@@ -2960,336 +3011,336 @@
       <c r="P17" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="Q17" s="90" t="s">
+      <c r="Q17" s="86" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D18" s="34">
         <v>101</v>
       </c>
-      <c r="E18" s="53" t="s">
+      <c r="E18" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="42" t="str">
+      <c r="F18" s="98" t="str">
         <f>CONCATENATE(E18,"@",123)</f>
         <v>Mangala@123</v>
       </c>
-      <c r="G18" s="53" t="str">
+      <c r="G18" s="97" t="str">
         <f t="shared" ref="G18:G25" si="1">((E18))</f>
         <v>Mangala</v>
       </c>
       <c r="H18" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="56">
+      <c r="I18" s="54">
         <v>33066</v>
       </c>
       <c r="J18" s="35">
         <v>1234567890</v>
       </c>
-      <c r="K18" s="53" t="str">
+      <c r="K18" s="51" t="str">
         <f>CONCATENATE(E18,123,"@","gmail.com")</f>
         <v>Mangala123@gmail.com</v>
       </c>
-      <c r="L18" s="48" t="s">
+      <c r="L18" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="M18" s="59" t="s">
+      <c r="M18" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="N18" s="48" t="s">
+      <c r="N18" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="O18" s="59">
+      <c r="O18" s="57">
         <v>3</v>
       </c>
-      <c r="P18" s="48">
+      <c r="P18" s="46">
         <v>3</v>
       </c>
-      <c r="Q18" s="62" t="s">
+      <c r="Q18" s="60" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D19" s="36">
         <v>102</v>
       </c>
-      <c r="E19" s="54" t="s">
+      <c r="E19" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="42" t="str">
+      <c r="F19" s="99" t="str">
         <f t="shared" ref="F19:F25" si="2">CONCATENATE(E19,"@",123)</f>
         <v>Surekha@123</v>
       </c>
-      <c r="G19" s="54" t="str">
+      <c r="G19" s="91" t="str">
         <f t="shared" si="1"/>
         <v>Surekha</v>
       </c>
       <c r="H19" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="57">
+      <c r="I19" s="55">
         <v>33067</v>
       </c>
       <c r="J19" s="37">
         <v>2234567890</v>
       </c>
-      <c r="K19" s="74" t="str">
+      <c r="K19" s="71" t="str">
         <f t="shared" ref="K19:K25" si="3">CONCATENATE(E19,123,"@","gmail.com")</f>
         <v>Surekha123@gmail.com</v>
       </c>
-      <c r="L19" s="49" t="s">
+      <c r="L19" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="M19" s="60" t="s">
+      <c r="M19" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="N19" s="49" t="s">
+      <c r="N19" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="O19" s="60">
+      <c r="O19" s="58">
         <v>3</v>
       </c>
-      <c r="P19" s="49">
+      <c r="P19" s="47">
         <v>3</v>
       </c>
-      <c r="Q19" s="63" t="s">
+      <c r="Q19" s="61" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D20" s="36">
         <v>103</v>
       </c>
-      <c r="E20" s="54" t="s">
+      <c r="E20" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="42" t="str">
+      <c r="F20" s="99" t="str">
         <f t="shared" si="2"/>
         <v>Shalu@123</v>
       </c>
-      <c r="G20" s="54" t="str">
+      <c r="G20" s="91" t="str">
         <f t="shared" si="1"/>
         <v>Shalu</v>
       </c>
       <c r="H20" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="57">
+      <c r="I20" s="55">
         <v>33068</v>
       </c>
       <c r="J20" s="37">
         <v>3234567890</v>
       </c>
-      <c r="K20" s="54" t="str">
+      <c r="K20" s="52" t="str">
         <f t="shared" si="3"/>
         <v>Shalu123@gmail.com</v>
       </c>
-      <c r="L20" s="49" t="s">
+      <c r="L20" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="M20" s="60" t="s">
+      <c r="M20" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="N20" s="49" t="s">
+      <c r="N20" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="O20" s="60">
+      <c r="O20" s="58">
         <v>3</v>
       </c>
-      <c r="P20" s="49">
+      <c r="P20" s="47">
         <v>3</v>
       </c>
-      <c r="Q20" s="63" t="s">
+      <c r="Q20" s="61" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D21" s="36">
         <v>104</v>
       </c>
-      <c r="E21" s="54" t="s">
+      <c r="E21" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="42" t="str">
+      <c r="F21" s="99" t="str">
         <f t="shared" si="2"/>
         <v>Kamala@123</v>
       </c>
-      <c r="G21" s="54" t="str">
+      <c r="G21" s="91" t="str">
         <f t="shared" si="1"/>
         <v>Kamala</v>
       </c>
       <c r="H21" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="I21" s="57">
+      <c r="I21" s="55">
         <v>33069</v>
       </c>
       <c r="J21" s="37">
         <v>4234567890</v>
       </c>
-      <c r="K21" s="74" t="str">
+      <c r="K21" s="71" t="str">
         <f t="shared" si="3"/>
         <v>Kamala123@gmail.com</v>
       </c>
-      <c r="L21" s="49" t="s">
+      <c r="L21" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="M21" s="60" t="s">
+      <c r="M21" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="N21" s="49" t="s">
+      <c r="N21" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="O21" s="60">
+      <c r="O21" s="58">
         <v>3</v>
       </c>
-      <c r="P21" s="49">
+      <c r="P21" s="47">
         <v>3</v>
       </c>
-      <c r="Q21" s="63" t="s">
+      <c r="Q21" s="61" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D22" s="36">
         <v>105</v>
       </c>
-      <c r="E22" s="54" t="s">
+      <c r="E22" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="42" t="str">
+      <c r="F22" s="99" t="str">
         <f t="shared" si="2"/>
         <v>Vimala@123</v>
       </c>
-      <c r="G22" s="54" t="str">
+      <c r="G22" s="91" t="str">
         <f t="shared" si="1"/>
         <v>Vimala</v>
       </c>
       <c r="H22" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="I22" s="57">
+      <c r="I22" s="55">
         <v>33070</v>
       </c>
       <c r="J22" s="37">
         <v>5234567890</v>
       </c>
-      <c r="K22" s="54" t="str">
+      <c r="K22" s="52" t="str">
         <f t="shared" si="3"/>
         <v>Vimala123@gmail.com</v>
       </c>
-      <c r="L22" s="49" t="s">
+      <c r="L22" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="M22" s="60" t="s">
+      <c r="M22" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="N22" s="49" t="s">
+      <c r="N22" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="O22" s="60">
+      <c r="O22" s="58">
         <v>3</v>
       </c>
-      <c r="P22" s="49">
+      <c r="P22" s="47">
         <v>3</v>
       </c>
-      <c r="Q22" s="63" t="s">
+      <c r="Q22" s="61" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D23" s="36">
         <v>106</v>
       </c>
-      <c r="E23" s="54" t="s">
+      <c r="E23" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="42" t="str">
+      <c r="F23" s="99" t="str">
         <f t="shared" si="2"/>
         <v>Rekha@123</v>
       </c>
-      <c r="G23" s="54" t="str">
+      <c r="G23" s="91" t="str">
         <f t="shared" si="1"/>
         <v>Rekha</v>
       </c>
       <c r="H23" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="57">
+      <c r="I23" s="55">
         <v>33071</v>
       </c>
       <c r="J23" s="37">
         <v>6234567890</v>
       </c>
-      <c r="K23" s="74" t="str">
+      <c r="K23" s="71" t="str">
         <f t="shared" si="3"/>
         <v>Rekha123@gmail.com</v>
       </c>
-      <c r="L23" s="49" t="s">
+      <c r="L23" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="M23" s="60" t="s">
+      <c r="M23" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="N23" s="49" t="s">
+      <c r="N23" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="O23" s="60">
+      <c r="O23" s="58">
         <v>3</v>
       </c>
-      <c r="P23" s="49">
+      <c r="P23" s="47">
         <v>3</v>
       </c>
-      <c r="Q23" s="63" t="s">
+      <c r="Q23" s="61" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D24" s="36">
         <v>107</v>
       </c>
-      <c r="E24" s="54" t="s">
+      <c r="E24" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="F24" s="42" t="str">
+      <c r="F24" s="99" t="str">
         <f t="shared" si="2"/>
         <v>Priyanka@123</v>
       </c>
-      <c r="G24" s="54" t="str">
+      <c r="G24" s="91" t="str">
         <f t="shared" si="1"/>
         <v>Priyanka</v>
       </c>
       <c r="H24" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="I24" s="57">
+      <c r="I24" s="55">
         <v>33072</v>
       </c>
       <c r="J24" s="37">
         <v>7234567890</v>
       </c>
-      <c r="K24" s="54" t="str">
+      <c r="K24" s="52" t="str">
         <f t="shared" si="3"/>
         <v>Priyanka123@gmail.com</v>
       </c>
-      <c r="L24" s="49" t="s">
+      <c r="L24" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="M24" s="60" t="s">
+      <c r="M24" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="N24" s="49" t="s">
+      <c r="N24" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="O24" s="60">
+      <c r="O24" s="58">
         <v>3</v>
       </c>
-      <c r="P24" s="49">
+      <c r="P24" s="47">
         <v>3</v>
       </c>
-      <c r="Q24" s="63" t="s">
+      <c r="Q24" s="61" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3297,46 +3348,46 @@
       <c r="D25" s="38">
         <v>108</v>
       </c>
-      <c r="E25" s="55" t="s">
+      <c r="E25" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="43" t="str">
+      <c r="F25" s="100" t="str">
         <f t="shared" si="2"/>
         <v>Chandra@123</v>
       </c>
-      <c r="G25" s="55" t="str">
+      <c r="G25" s="92" t="str">
         <f t="shared" si="1"/>
         <v>Chandra</v>
       </c>
       <c r="H25" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="I25" s="58">
+      <c r="I25" s="56">
         <v>33073</v>
       </c>
       <c r="J25" s="39">
         <v>8234567890</v>
       </c>
-      <c r="K25" s="75" t="str">
+      <c r="K25" s="72" t="str">
         <f t="shared" si="3"/>
         <v>Chandra123@gmail.com</v>
       </c>
-      <c r="L25" s="50" t="s">
+      <c r="L25" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="M25" s="61" t="s">
+      <c r="M25" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="N25" s="50" t="s">
+      <c r="N25" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="O25" s="61">
+      <c r="O25" s="59">
         <v>3</v>
       </c>
-      <c r="P25" s="50">
+      <c r="P25" s="48">
         <v>3</v>
       </c>
-      <c r="Q25" s="64" t="s">
+      <c r="Q25" s="62" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3345,379 +3396,379 @@
       <c r="C28" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="86" t="s">
+      <c r="D28" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="87" t="s">
+      <c r="E28" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="F28" s="87" t="s">
+      <c r="F28" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="G28" s="87" t="s">
+      <c r="G28" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="H28" s="87" t="s">
+      <c r="H28" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="I28" s="87" t="s">
+      <c r="I28" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="J28" s="87" t="s">
+      <c r="J28" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="K28" s="87" t="s">
+      <c r="K28" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="L28" s="87" t="s">
+      <c r="L28" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="M28" s="87" t="s">
+      <c r="M28" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="N28" s="88" t="s">
+      <c r="N28" s="84" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D29" s="34">
         <v>11</v>
       </c>
-      <c r="E29" s="53" t="s">
+      <c r="E29" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="42" t="str">
+      <c r="F29" s="98" t="str">
         <f>CONCATENATE(E29,"@",123)</f>
         <v>Akash@123</v>
       </c>
-      <c r="G29" s="53" t="str">
+      <c r="G29" s="97" t="str">
         <f>(E29)</f>
         <v>Akash</v>
       </c>
       <c r="H29" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="I29" s="56">
+      <c r="I29" s="54">
         <v>36526</v>
       </c>
       <c r="J29" s="35">
         <v>9876543212</v>
       </c>
-      <c r="K29" s="53" t="str">
+      <c r="K29" s="51" t="str">
         <f>CONCATENATE(E29,123,"@","gmail.com")</f>
         <v>Akash123@gmail.com</v>
       </c>
-      <c r="L29" s="48" t="s">
+      <c r="L29" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="M29" s="70" t="s">
+      <c r="M29" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="N29" s="62" t="s">
+      <c r="N29" s="60" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D30" s="36">
         <v>12</v>
       </c>
-      <c r="E30" s="54" t="s">
+      <c r="E30" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="42" t="str">
+      <c r="F30" s="99" t="str">
         <f t="shared" ref="F30:F38" si="4">CONCATENATE(E30,"@",123)</f>
         <v>Vikas@123</v>
       </c>
-      <c r="G30" s="54" t="str">
+      <c r="G30" s="91" t="str">
         <f t="shared" ref="G30:G38" si="5">(E30)</f>
         <v>Vikas</v>
       </c>
       <c r="H30" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="I30" s="57">
+      <c r="I30" s="55">
         <v>36527</v>
       </c>
       <c r="J30" s="37">
         <v>9876633321</v>
       </c>
-      <c r="K30" s="53" t="str">
+      <c r="K30" s="52" t="str">
         <f t="shared" ref="K30:K38" si="6">CONCATENATE(E30,123,"@","gmail.com")</f>
         <v>Vikas123@gmail.com</v>
       </c>
-      <c r="L30" s="49" t="s">
+      <c r="L30" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="M30" s="68" t="s">
+      <c r="M30" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="N30" s="63" t="s">
+      <c r="N30" s="61" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D31" s="36">
         <v>13</v>
       </c>
-      <c r="E31" s="54" t="s">
+      <c r="E31" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="42" t="str">
+      <c r="F31" s="99" t="str">
         <f t="shared" si="4"/>
         <v>Suresh@123</v>
       </c>
-      <c r="G31" s="54" t="str">
+      <c r="G31" s="91" t="str">
         <f t="shared" si="5"/>
         <v>Suresh</v>
       </c>
       <c r="H31" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="I31" s="57">
+      <c r="I31" s="55">
         <v>36528</v>
       </c>
       <c r="J31" s="37">
         <v>9876723430</v>
       </c>
-      <c r="K31" s="53" t="str">
+      <c r="K31" s="52" t="str">
         <f t="shared" si="6"/>
         <v>Suresh123@gmail.com</v>
       </c>
-      <c r="L31" s="49" t="s">
+      <c r="L31" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="M31" s="68" t="s">
+      <c r="M31" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="N31" s="63" t="s">
+      <c r="N31" s="61" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D32" s="36">
         <v>14</v>
       </c>
-      <c r="E32" s="54" t="s">
+      <c r="E32" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="F32" s="42" t="str">
+      <c r="F32" s="99" t="str">
         <f t="shared" si="4"/>
         <v>Nilesh@123</v>
       </c>
-      <c r="G32" s="54" t="str">
+      <c r="G32" s="91" t="str">
         <f t="shared" si="5"/>
         <v>Nilesh</v>
       </c>
       <c r="H32" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="I32" s="57">
+      <c r="I32" s="55">
         <v>36529</v>
       </c>
       <c r="J32" s="37">
         <v>9876813539</v>
       </c>
-      <c r="K32" s="53" t="str">
+      <c r="K32" s="52" t="str">
         <f t="shared" si="6"/>
         <v>Nilesh123@gmail.com</v>
       </c>
-      <c r="L32" s="49" t="s">
+      <c r="L32" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="M32" s="68" t="s">
+      <c r="M32" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="N32" s="63" t="s">
+      <c r="N32" s="61" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D33" s="36">
         <v>15</v>
       </c>
-      <c r="E33" s="54" t="s">
+      <c r="E33" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="42" t="str">
+      <c r="F33" s="99" t="str">
         <f t="shared" si="4"/>
         <v>Ajit@123</v>
       </c>
-      <c r="G33" s="54" t="str">
+      <c r="G33" s="91" t="str">
         <f t="shared" si="5"/>
         <v>Ajit</v>
       </c>
       <c r="H33" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="I33" s="57">
+      <c r="I33" s="55">
         <v>36530</v>
       </c>
       <c r="J33" s="37">
         <v>9876903648</v>
       </c>
-      <c r="K33" s="53" t="str">
+      <c r="K33" s="52" t="str">
         <f t="shared" si="6"/>
         <v>Ajit123@gmail.com</v>
       </c>
-      <c r="L33" s="49" t="s">
+      <c r="L33" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="M33" s="68" t="s">
+      <c r="M33" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="N33" s="63" t="s">
+      <c r="N33" s="61" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D34" s="36">
         <v>16</v>
       </c>
-      <c r="E34" s="54" t="s">
+      <c r="E34" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="F34" s="42" t="str">
+      <c r="F34" s="99" t="str">
         <f t="shared" si="4"/>
         <v>Suryakant@123</v>
       </c>
-      <c r="G34" s="54" t="str">
+      <c r="G34" s="91" t="str">
         <f t="shared" si="5"/>
         <v>Suryakant</v>
       </c>
       <c r="H34" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="I34" s="57">
+      <c r="I34" s="55">
         <v>36531</v>
       </c>
       <c r="J34" s="37">
         <v>9876993757</v>
       </c>
-      <c r="K34" s="53" t="str">
+      <c r="K34" s="52" t="str">
         <f t="shared" si="6"/>
         <v>Suryakant123@gmail.com</v>
       </c>
-      <c r="L34" s="49" t="s">
+      <c r="L34" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="M34" s="68" t="s">
+      <c r="M34" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="N34" s="63" t="s">
+      <c r="N34" s="61" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D35" s="36">
         <v>17</v>
       </c>
-      <c r="E35" s="54" t="s">
+      <c r="E35" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="F35" s="42" t="str">
+      <c r="F35" s="99" t="str">
         <f t="shared" si="4"/>
         <v>Pratik@123</v>
       </c>
-      <c r="G35" s="54" t="str">
+      <c r="G35" s="91" t="str">
         <f t="shared" si="5"/>
         <v>Pratik</v>
       </c>
       <c r="H35" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="I35" s="57">
+      <c r="I35" s="55">
         <v>36532</v>
       </c>
       <c r="J35" s="37">
         <v>9877083866</v>
       </c>
-      <c r="K35" s="53" t="str">
+      <c r="K35" s="52" t="str">
         <f t="shared" si="6"/>
         <v>Pratik123@gmail.com</v>
       </c>
-      <c r="L35" s="49" t="s">
+      <c r="L35" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="M35" s="68" t="s">
+      <c r="M35" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="N35" s="63" t="s">
+      <c r="N35" s="61" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D36" s="36">
         <v>18</v>
       </c>
-      <c r="E36" s="54" t="s">
+      <c r="E36" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="F36" s="42" t="str">
+      <c r="F36" s="99" t="str">
         <f t="shared" si="4"/>
         <v>Pankaj@123</v>
       </c>
-      <c r="G36" s="54" t="str">
+      <c r="G36" s="91" t="str">
         <f t="shared" si="5"/>
         <v>Pankaj</v>
       </c>
       <c r="H36" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="I36" s="57">
+      <c r="I36" s="55">
         <v>36533</v>
       </c>
       <c r="J36" s="37">
         <v>9877173975</v>
       </c>
-      <c r="K36" s="53" t="str">
+      <c r="K36" s="52" t="str">
         <f t="shared" si="6"/>
         <v>Pankaj123@gmail.com</v>
       </c>
-      <c r="L36" s="49" t="s">
+      <c r="L36" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="M36" s="68" t="s">
+      <c r="M36" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="N36" s="63" t="s">
+      <c r="N36" s="61" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D37" s="36">
         <v>19</v>
       </c>
-      <c r="E37" s="54" t="s">
+      <c r="E37" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="F37" s="42" t="str">
+      <c r="F37" s="99" t="str">
         <f t="shared" si="4"/>
         <v>Rohit@123</v>
       </c>
-      <c r="G37" s="54" t="str">
+      <c r="G37" s="91" t="str">
         <f t="shared" si="5"/>
         <v>Rohit</v>
       </c>
       <c r="H37" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="I37" s="57">
+      <c r="I37" s="55">
         <v>36534</v>
       </c>
       <c r="J37" s="37">
         <v>9877264084</v>
       </c>
-      <c r="K37" s="53" t="str">
+      <c r="K37" s="52" t="str">
         <f t="shared" si="6"/>
         <v>Rohit123@gmail.com</v>
       </c>
-      <c r="L37" s="49" t="s">
+      <c r="L37" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="M37" s="68" t="s">
+      <c r="M37" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="N37" s="63" t="s">
+      <c r="N37" s="61" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3725,46 +3776,46 @@
       <c r="D38" s="38">
         <v>20</v>
       </c>
-      <c r="E38" s="55" t="s">
+      <c r="E38" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="F38" s="43" t="str">
+      <c r="F38" s="100" t="str">
         <f t="shared" si="4"/>
         <v>Raju@123</v>
       </c>
-      <c r="G38" s="55" t="str">
+      <c r="G38" s="92" t="str">
         <f t="shared" si="5"/>
         <v>Raju</v>
       </c>
       <c r="H38" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="I38" s="58">
+      <c r="I38" s="56">
         <v>36535</v>
       </c>
       <c r="J38" s="39">
         <v>9877354193</v>
       </c>
-      <c r="K38" s="67" t="str">
+      <c r="K38" s="53" t="str">
         <f t="shared" si="6"/>
         <v>Raju123@gmail.com</v>
       </c>
-      <c r="L38" s="50" t="s">
+      <c r="L38" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="M38" s="69" t="s">
+      <c r="M38" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="N38" s="64" t="s">
+      <c r="N38" s="62" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="40" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="41" spans="3:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C41" s="44" t="s">
+      <c r="C41" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="45" t="s">
+      <c r="D41" s="43" t="s">
         <v>57</v>
       </c>
       <c r="E41" s="26" t="s">
@@ -3778,10 +3829,10 @@
       <c r="D42" s="36">
         <v>1</v>
       </c>
-      <c r="E42" s="54" t="s">
+      <c r="E42" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="F42" s="46">
+      <c r="F42" s="44">
         <v>35</v>
       </c>
     </row>
@@ -3789,10 +3840,10 @@
       <c r="D43" s="36">
         <v>2</v>
       </c>
-      <c r="E43" s="54" t="s">
+      <c r="E43" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="F43" s="46">
+      <c r="F43" s="44">
         <v>25</v>
       </c>
     </row>
@@ -3800,10 +3851,10 @@
       <c r="D44" s="36">
         <v>3</v>
       </c>
-      <c r="E44" s="54" t="s">
+      <c r="E44" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="F44" s="46">
+      <c r="F44" s="44">
         <v>25</v>
       </c>
     </row>
@@ -3811,10 +3862,10 @@
       <c r="D45" s="38">
         <v>4</v>
       </c>
-      <c r="E45" s="55" t="s">
+      <c r="E45" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="F45" s="47">
+      <c r="F45" s="45">
         <v>27</v>
       </c>
     </row>
@@ -3823,7 +3874,7 @@
       <c r="C48" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D48" s="84" t="s">
+      <c r="D48" s="80" t="s">
         <v>92</v>
       </c>
       <c r="E48" s="28" t="s">
@@ -3841,64 +3892,73 @@
       <c r="I48" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="J48" s="29" t="s">
+      <c r="J48" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="K48" s="29" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D49" s="34">
         <v>1</v>
       </c>
-      <c r="E49" s="53">
+      <c r="E49" s="51">
         <v>101</v>
       </c>
       <c r="F49" s="35">
         <v>15</v>
       </c>
-      <c r="G49" s="53">
+      <c r="G49" s="51">
         <v>1</v>
       </c>
       <c r="H49" s="35">
         <v>3</v>
       </c>
-      <c r="I49" s="93">
+      <c r="I49" s="89">
         <v>10</v>
       </c>
-      <c r="J49" s="66">
-        <f>(I49-H49)*35</f>
+      <c r="J49" s="89">
+        <v>35</v>
+      </c>
+      <c r="K49" s="64">
+        <f>(I49-H49)*J49</f>
         <v>245</v>
       </c>
     </row>
-    <row r="50" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D50" s="38">
         <v>2</v>
       </c>
-      <c r="E50" s="55">
+      <c r="E50" s="53">
         <v>3</v>
       </c>
       <c r="F50" s="39">
         <v>20</v>
       </c>
-      <c r="G50" s="55">
+      <c r="G50" s="53">
         <v>2</v>
       </c>
       <c r="H50" s="39">
         <v>1</v>
       </c>
-      <c r="I50" s="83">
+      <c r="I50" s="79">
         <v>5</v>
       </c>
-      <c r="J50" s="94">
-        <f>(I50-H50)*25</f>
+      <c r="J50" s="79">
+        <v>25</v>
+      </c>
+      <c r="K50" s="90">
+        <f>(I50-H50)*J50</f>
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="53" spans="3:10" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="53" spans="3:11" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C53" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D53" s="85" t="s">
+      <c r="D53" s="81" t="s">
         <v>93</v>
       </c>
       <c r="E53" s="30" t="s">
@@ -3914,29 +3974,29 @@
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="3:10" ht="46.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D54" s="78">
+    <row r="54" spans="3:11" ht="46.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D54" s="75">
         <v>1</v>
       </c>
-      <c r="E54" s="79">
+      <c r="E54" s="76">
         <v>101</v>
       </c>
-      <c r="F54" s="81">
+      <c r="F54" s="78">
         <v>2</v>
       </c>
-      <c r="G54" s="82">
+      <c r="G54" s="76">
         <v>3</v>
       </c>
-      <c r="H54" s="80" t="s">
+      <c r="H54" s="77" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="57" spans="3:10" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="57" spans="3:11" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C57" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D57" s="77" t="s">
+      <c r="D57" s="74" t="s">
         <v>94</v>
       </c>
       <c r="E57" s="32" t="s">
@@ -3955,23 +4015,23 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D58" s="51">
+    <row r="58" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D58" s="49">
         <v>1</v>
       </c>
-      <c r="E58" s="65" t="s">
+      <c r="E58" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="F58" s="52">
+      <c r="F58" s="50">
         <v>1234567898</v>
       </c>
-      <c r="G58" s="76" t="s">
+      <c r="G58" s="73" t="s">
         <v>95</v>
       </c>
-      <c r="H58" s="65" t="s">
+      <c r="H58" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="I58" s="92" t="s">
+      <c r="I58" s="88" t="s">
         <v>91</v>
       </c>
     </row>
